--- a/resources/journal.xlsx
+++ b/resources/journal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="преподаватели" sheetId="4" r:id="rId1"/>
@@ -26,82 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
-  <si>
-    <t>Преподаватель</t>
-  </si>
-  <si>
-    <t>Иванова А.П.</t>
-  </si>
-  <si>
-    <t>Высшая математика</t>
-  </si>
-  <si>
-    <t>Петров С.И.</t>
-  </si>
-  <si>
-    <t>Сидорова М.В.</t>
-  </si>
-  <si>
-    <t>Кузнецов В.Р.</t>
-  </si>
-  <si>
-    <t>Николаева Е.С.</t>
-  </si>
-  <si>
-    <t>Громов П.А.</t>
-  </si>
-  <si>
-    <t>Жукова Л.К.</t>
-  </si>
-  <si>
-    <t>Соколов Д.М.</t>
-  </si>
-  <si>
-    <t>Васнецова О.И.</t>
-  </si>
-  <si>
-    <t>Тимофеев Г.С.</t>
-  </si>
-  <si>
-    <t>Студент</t>
-  </si>
-  <si>
-    <t>Сергеев Иван</t>
-  </si>
-  <si>
-    <t>Петрова Мария</t>
-  </si>
-  <si>
-    <t>Козлов Артём</t>
-  </si>
-  <si>
-    <t>Смирнова Анна</t>
-  </si>
-  <si>
-    <t>Волков Дмитрий</t>
-  </si>
-  <si>
-    <t>Новикова Елена</t>
-  </si>
-  <si>
-    <t>Фёдоров Павел</t>
-  </si>
-  <si>
-    <t>Морозова Ольга</t>
-  </si>
-  <si>
-    <t>Зайцев Алексей</t>
-  </si>
-  <si>
-    <t>Лебедева Виктория</t>
-  </si>
-  <si>
-    <t>Дисциплина</t>
-  </si>
-  <si>
-    <t>Философия науки</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
   <si>
     <t>Органическая химия</t>
   </si>
@@ -109,22 +34,322 @@
     <t>Цифровая экономика</t>
   </si>
   <si>
-    <t>Программирование на C++</t>
-  </si>
-  <si>
     <t>Политология</t>
   </si>
   <si>
     <t>Архитектура ЭВМ</t>
   </si>
   <si>
-    <t>Французский язык</t>
-  </si>
-  <si>
     <t>Генетика</t>
   </si>
   <si>
-    <t>Big Data Analytics</t>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Екатерина Смирнова</t>
+  </si>
+  <si>
+    <t>Дмитрий Петров</t>
+  </si>
+  <si>
+    <t>Ольга Кузнецова</t>
+  </si>
+  <si>
+    <t>Сергей Васильев</t>
+  </si>
+  <si>
+    <t>Анна Попова</t>
+  </si>
+  <si>
+    <t>Павел Новиков</t>
+  </si>
+  <si>
+    <t>Мария Федорова</t>
+  </si>
+  <si>
+    <t>Игорь Морозов</t>
+  </si>
+  <si>
+    <t>Юлия Воробьева</t>
+  </si>
+  <si>
+    <t>Алексей Соколов</t>
+  </si>
+  <si>
+    <t>Наталья Павлова</t>
+  </si>
+  <si>
+    <t>Артем Лебедев</t>
+  </si>
+  <si>
+    <t>Елена Козлова</t>
+  </si>
+  <si>
+    <t>Владимир Степанов</t>
+  </si>
+  <si>
+    <t>Татьяна Орлова</t>
+  </si>
+  <si>
+    <t>Александр Алексеев</t>
+  </si>
+  <si>
+    <t>Светлана Михайлова</t>
+  </si>
+  <si>
+    <t>Михаил Тарасов</t>
+  </si>
+  <si>
+    <t>Виктория Захарова</t>
+  </si>
+  <si>
+    <t>Никита Борисов</t>
+  </si>
+  <si>
+    <t>Ксения Андреева</t>
+  </si>
+  <si>
+    <t>Роман Григорьев</t>
+  </si>
+  <si>
+    <t>Алина Макарова</t>
+  </si>
+  <si>
+    <t>Константин Киселев</t>
+  </si>
+  <si>
+    <t>Евгения Фомина</t>
+  </si>
+  <si>
+    <t>Станислав Тимофеев</t>
+  </si>
+  <si>
+    <t>Дарья Романова</t>
+  </si>
+  <si>
+    <t>Григорий Белов</t>
+  </si>
+  <si>
+    <t>Алиса Ефимова</t>
+  </si>
+  <si>
+    <t>Вячеслав Дмитриев</t>
+  </si>
+  <si>
+    <t>Людмила Семенова</t>
+  </si>
+  <si>
+    <t>Георгий Комиссаров</t>
+  </si>
+  <si>
+    <t>Валерия Осипова</t>
+  </si>
+  <si>
+    <t>Тимофей Фролов</t>
+  </si>
+  <si>
+    <t>Арина Гусева</t>
+  </si>
+  <si>
+    <t>Максим Шестаков</t>
+  </si>
+  <si>
+    <t>Яна Полякова</t>
+  </si>
+  <si>
+    <t>Иван Кудрявцев</t>
+  </si>
+  <si>
+    <t>Ангелина Данилова</t>
+  </si>
+  <si>
+    <t>Денис Жуков</t>
+  </si>
+  <si>
+    <t>Вероника Сорокина</t>
+  </si>
+  <si>
+    <t>Артур Медведев</t>
+  </si>
+  <si>
+    <t>Лариса Игнатьева</t>
+  </si>
+  <si>
+    <t>Вадим Егоров</t>
+  </si>
+  <si>
+    <t>Элина Тихонова</t>
+  </si>
+  <si>
+    <t>Николай Савельев</t>
+  </si>
+  <si>
+    <t>Елизавета Родионова</t>
+  </si>
+  <si>
+    <t>Глеб Коновалов</t>
+  </si>
+  <si>
+    <t>Ульяна Богданова</t>
+  </si>
+  <si>
+    <t>Имя студента</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
+  <si>
+    <t>Математический анализ</t>
+  </si>
+  <si>
+    <t>Александр Иванов</t>
+  </si>
+  <si>
+    <t>Общая физика</t>
+  </si>
+  <si>
+    <t>Елена Петрова</t>
+  </si>
+  <si>
+    <t>Сергей Смирнов</t>
+  </si>
+  <si>
+    <t>История России</t>
+  </si>
+  <si>
+    <t>Программирование на Python</t>
+  </si>
+  <si>
+    <t>Дмитрий Васильев</t>
+  </si>
+  <si>
+    <t>Теоретическая механика</t>
+  </si>
+  <si>
+    <t>Микроэкономика</t>
+  </si>
+  <si>
+    <t>Молекулярная биология</t>
+  </si>
+  <si>
+    <t>Философия</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>Квантовая физика</t>
+  </si>
+  <si>
+    <t>Дифференциальные уравнения</t>
+  </si>
+  <si>
+    <t>Биохимия</t>
+  </si>
+  <si>
+    <t>Русская литература XIX века</t>
+  </si>
+  <si>
+    <t>Теория вероятностей</t>
+  </si>
+  <si>
+    <t>Экология</t>
+  </si>
+  <si>
+    <t>Графический дизайн</t>
+  </si>
+  <si>
+    <t>Базы данных</t>
+  </si>
+  <si>
+    <t>Макроэкономика</t>
+  </si>
+  <si>
+    <t>Аналитическая геометрия</t>
+  </si>
+  <si>
+    <t>История искусств</t>
+  </si>
+  <si>
+    <t>Web-разработка</t>
+  </si>
+  <si>
+    <t>Нейронные сети</t>
+  </si>
+  <si>
+    <t>Культурология</t>
+  </si>
+  <si>
+    <t>Физическая химия</t>
+  </si>
+  <si>
+    <t>Социология</t>
+  </si>
+  <si>
+    <t>Теория игр</t>
+  </si>
+  <si>
+    <t>Астрономия</t>
+  </si>
+  <si>
+    <t>Право ЕС</t>
+  </si>
+  <si>
+    <t>Биофизика</t>
+  </si>
+  <si>
+    <t>Машинное обучение</t>
+  </si>
+  <si>
+    <t>Ядерная энергетика</t>
+  </si>
+  <si>
+    <t>Арт-менеджмент</t>
+  </si>
+  <si>
+    <t>Криптография</t>
+  </si>
+  <si>
+    <t>Лингвистика</t>
+  </si>
+  <si>
+    <t>Робототехника</t>
+  </si>
+  <si>
+    <t>Финансовый учет</t>
+  </si>
+  <si>
+    <t>Клиническая психология</t>
+  </si>
+  <si>
+    <t>Геополитика</t>
+  </si>
+  <si>
+    <t>Теория музыки</t>
+  </si>
+  <si>
+    <t>Биоинженерия</t>
+  </si>
+  <si>
+    <t>Маркетинг</t>
+  </si>
+  <si>
+    <t>Квантовая информатика</t>
+  </si>
+  <si>
+    <t>Урбанистика</t>
+  </si>
+  <si>
+    <t>Эконометрика</t>
+  </si>
+  <si>
+    <t>Патентоведение</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Имя преподавателя</t>
   </si>
 </sst>
 </file>
@@ -141,37 +366,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -179,34 +399,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,70 +693,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -560,177 +964,847 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B8" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B9" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B10" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B11" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B12" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B13" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B14" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B15" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B16" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B17" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="B18" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B1:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
